--- a/notebooks/SETD2/input/SETD2_LLS_individuals.xlsx
+++ b/notebooks/SETD2/input/SETD2_LLS_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/SETD2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E1EFEC-028A-0343-91CE-215817A8EA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6707B21-4036-584F-A658-E4B1AA3E6D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="17080" windowWidth="60860" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="2360" windowWidth="60860" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="298">
   <si>
     <t>PMID</t>
   </si>
@@ -328,9 +328,6 @@
     <t>c.1647_1667delinsAC</t>
   </si>
   <si>
-    <t>NP_054878.5:p.(Asp549GlufsTer24)</t>
-  </si>
-  <si>
     <t>Case 2</t>
   </si>
   <si>
@@ -403,9 +400,6 @@
     <t>c.6775del</t>
   </si>
   <si>
-    <t>NP_054878.5:p.(Val2259CysfsTer50)</t>
-  </si>
-  <si>
     <t>PMID:31643139</t>
   </si>
   <si>
@@ -460,9 +454,6 @@
     <t>c.4276A&gt;T</t>
   </si>
   <si>
-    <t>NP_054878.5:p.(Lys1426Ter)</t>
-  </si>
-  <si>
     <t>Patient 2</t>
   </si>
   <si>
@@ -490,9 +481,6 @@
     <t>c.4874G&gt;A</t>
   </si>
   <si>
-    <t>NP_054878.5:p.(Arg1625His)</t>
-  </si>
-  <si>
     <t>P8Y</t>
   </si>
   <si>
@@ -511,9 +499,6 @@
     <t>c.6471T&gt;A</t>
   </si>
   <si>
-    <t>NP_054878.5:p.(Tyr2157Ter)</t>
-  </si>
-  <si>
     <t>Second trimester onset</t>
   </si>
   <si>
@@ -571,9 +556,6 @@
     <t>c.4997A&gt;G</t>
   </si>
   <si>
-    <t>NP_054878.5:p.(Tyr1666Cys)</t>
-  </si>
-  <si>
     <t>P10Y9M</t>
   </si>
   <si>
@@ -598,15 +580,9 @@
     <t>c.820C&gt;T</t>
   </si>
   <si>
-    <t>NP_054878.5:p.(Gln274Ter)</t>
-  </si>
-  <si>
     <t>c.5444T&gt;G</t>
   </si>
   <si>
-    <t>NP_054878.5:p.(Leu1815Trp)</t>
-  </si>
-  <si>
     <t>PMID:27317772</t>
   </si>
   <si>
@@ -616,9 +592,6 @@
     <t>c.5285_5286del</t>
   </si>
   <si>
-    <t>NP_054878.5:p.(His1762LeufsTer26)</t>
-  </si>
-  <si>
     <t>P12Y1M</t>
   </si>
   <si>
@@ -658,9 +631,6 @@
     <t>c.4405dup</t>
   </si>
   <si>
-    <t xml:space="preserve">	NP_054878.5:p.(Met1469AsnfsTer6)</t>
-  </si>
-  <si>
     <t>P7Y</t>
   </si>
   <si>
@@ -694,9 +664,6 @@
     <t>c.4644_4646del</t>
   </si>
   <si>
-    <t>NP_054878.5:p.(Q1548del)</t>
-  </si>
-  <si>
     <t>P9Y</t>
   </si>
   <si>
@@ -721,9 +688,6 @@
     <t>c.2028del</t>
   </si>
   <si>
-    <t>NP_054878.5:p.(Pro677LeufsTer19)</t>
-  </si>
-  <si>
     <t>PMID:33766796</t>
   </si>
   <si>
@@ -742,9 +706,6 @@
     <t>c.3185C&gt;T</t>
   </si>
   <si>
-    <t>NP_054878.5:p.(Pro1062Leu)</t>
-  </si>
-  <si>
     <t>PMID:37025455</t>
   </si>
   <si>
@@ -757,9 +718,6 @@
     <t>c.5832_5835dup</t>
   </si>
   <si>
-    <t>NP_054878.5:p.(Ala1946ArgfsTer3)</t>
-  </si>
-  <si>
     <t>PMID:33248444</t>
   </si>
   <si>
@@ -775,9 +733,6 @@
     <t>c.236T&gt;A</t>
   </si>
   <si>
-    <t>NP_054878.5:p.(Leu79His)</t>
-  </si>
-  <si>
     <t>Elevated circulating growth hormone concentration</t>
   </si>
   <si>
@@ -850,73 +805,37 @@
     <t>c.4586G&gt;C</t>
   </si>
   <si>
-    <t>p.Cys1529Ser</t>
-  </si>
-  <si>
     <t>c.2598_2615del</t>
   </si>
   <si>
-    <t>p.His866_Tyr871del</t>
-  </si>
-  <si>
     <t>c.6921dup</t>
   </si>
   <si>
-    <t>p.Val2308CysfsTer61</t>
-  </si>
-  <si>
     <t>c.4457_4460del</t>
   </si>
   <si>
-    <t>p.Lys1486ArgfsTer28</t>
-  </si>
-  <si>
     <t>c.6299A&gt;G</t>
   </si>
   <si>
-    <t>p.Asp2100Gly</t>
-  </si>
-  <si>
     <t>c.2687C&gt;T</t>
   </si>
   <si>
-    <t>p.Thr896Ile</t>
-  </si>
-  <si>
     <t>c.1717_1720del</t>
   </si>
   <si>
-    <t>p.Phe573ValfsTer5</t>
-  </si>
-  <si>
     <t>c.3439C&gt;T</t>
   </si>
   <si>
-    <t>p.Gln1147Ter</t>
-  </si>
-  <si>
     <t>c.3769A&gt;T</t>
   </si>
   <si>
-    <t>p.Asn1257Tyr</t>
-  </si>
-  <si>
     <t>c.3964C&gt;T</t>
   </si>
   <si>
-    <t>p.Arg1322Ter</t>
-  </si>
-  <si>
     <t>c.97G&gt;A</t>
   </si>
   <si>
-    <t>p.Glu33Lys</t>
-  </si>
-  <si>
     <t>c.7624G&gt;A</t>
-  </si>
-  <si>
-    <t>p.Glu2542Lys</t>
   </si>
   <si>
     <t>HP:0001270</t>
@@ -1072,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1082,8 +1001,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1390,11 +1307,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CT30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="CK2" sqref="CK2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:98" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1458,7 +1378,7 @@
         <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>21</v>
@@ -1470,22 +1390,22 @@
         <v>28</v>
       </c>
       <c r="Y1" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AE1" t="s">
         <v>30</v>
@@ -1515,7 +1435,7 @@
         <v>31</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>32</v>
@@ -1524,16 +1444,16 @@
         <v>20</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>89</v>
@@ -1542,43 +1462,43 @@
         <v>91</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BJ1" s="1" t="s">
         <v>36</v>
@@ -1587,13 +1507,13 @@
         <v>29</v>
       </c>
       <c r="BL1" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BM1" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="BN1" s="4" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="BO1" s="1" t="s">
         <v>34</v>
@@ -1605,10 +1525,10 @@
         <v>38</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BT1" s="1" t="s">
         <v>35</v>
@@ -1617,7 +1537,7 @@
         <v>40</v>
       </c>
       <c r="BV1" s="4" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="BW1" s="1" t="s">
         <v>41</v>
@@ -1626,7 +1546,7 @@
         <v>85</v>
       </c>
       <c r="BY1" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="BZ1" s="2" t="s">
         <v>95</v>
@@ -1635,58 +1555,58 @@
         <v>97</v>
       </c>
       <c r="CB1" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="CC1" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="CD1" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="CE1" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="CF1" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="CG1" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="CH1" s="2" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="CI1" s="2" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="CJ1" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="CK1" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="CL1" s="2" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="CM1" s="4" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="CN1" s="4" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="CO1" s="4" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="CP1" s="4" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="CQ1" s="4" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="CR1" s="4" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="CS1" s="4" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="CT1"/>
     </row>
@@ -1752,7 +1672,7 @@
         <v>55</v>
       </c>
       <c r="U2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V2" t="s">
         <v>58</v>
@@ -1764,22 +1684,22 @@
         <v>65</v>
       </c>
       <c r="Y2" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="Z2" t="s">
         <v>56</v>
       </c>
       <c r="AA2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AB2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AC2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AD2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AE2" t="s">
         <v>67</v>
@@ -1809,7 +1729,7 @@
         <v>68</v>
       </c>
       <c r="AN2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AO2" t="s">
         <v>69</v>
@@ -1818,16 +1738,16 @@
         <v>57</v>
       </c>
       <c r="AQ2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AR2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="AS2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AT2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="AU2" t="s">
         <v>90</v>
@@ -1836,43 +1756,43 @@
         <v>92</v>
       </c>
       <c r="AW2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AX2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AY2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BA2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="BB2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="BC2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="BD2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="BE2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="BF2" t="s">
         <v>70</v>
       </c>
       <c r="BG2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BH2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BI2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BJ2" t="s">
         <v>73</v>
@@ -1881,13 +1801,13 @@
         <v>66</v>
       </c>
       <c r="BL2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="BM2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="BN2" s="4" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="BO2" t="s">
         <v>71</v>
@@ -1899,10 +1819,10 @@
         <v>75</v>
       </c>
       <c r="BR2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BS2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BT2" t="s">
         <v>72</v>
@@ -1911,7 +1831,7 @@
         <v>77</v>
       </c>
       <c r="BV2" s="4" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="BW2" t="s">
         <v>78</v>
@@ -1920,7 +1840,7 @@
         <v>86</v>
       </c>
       <c r="BY2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="BZ2" t="s">
         <v>96</v>
@@ -1929,58 +1849,58 @@
         <v>98</v>
       </c>
       <c r="CB2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="CC2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="CD2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="CE2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="CF2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="CG2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="CH2" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="CI2" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="CJ2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="CK2" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="CL2" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="CM2" s="4" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="CN2" s="4" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="CO2" s="4" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="CP2" s="4" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="CQ2" s="4" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="CR2" s="4" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="CS2" s="4" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.2">
@@ -2014,9 +1934,6 @@
       <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="L3" t="s">
-        <v>102</v>
-      </c>
       <c r="M3" t="s">
         <v>53</v>
       </c>
@@ -2155,7 +2072,7 @@
         <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -2173,124 +2090,121 @@
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="L4" t="s">
-        <v>127</v>
-      </c>
       <c r="M4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O4" t="s">
         <v>83</v>
       </c>
       <c r="P4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V4" t="s">
+        <v>88</v>
+      </c>
+      <c r="W4" t="s">
+        <v>88</v>
+      </c>
+      <c r="X4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU4" t="s">
         <v>105</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" t="s">
-        <v>88</v>
-      </c>
-      <c r="V4" t="s">
-        <v>88</v>
-      </c>
-      <c r="W4" t="s">
-        <v>88</v>
-      </c>
-      <c r="X4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>88</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>88</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>106</v>
       </c>
       <c r="BX4" t="s">
         <v>87</v>
@@ -2307,13 +2221,13 @@
     </row>
     <row r="5" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
         <v>128</v>
-      </c>
-      <c r="B5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" t="s">
-        <v>130</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
@@ -2331,25 +2245,22 @@
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="L5" t="s">
-        <v>146</v>
-      </c>
       <c r="M5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O5" t="s">
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q5" t="s">
         <v>53</v>
@@ -2424,7 +2335,7 @@
         <v>87</v>
       </c>
       <c r="BU5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BX5" t="s">
         <v>87</v>
@@ -2441,13 +2352,13 @@
     </row>
     <row r="6" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -2465,25 +2376,22 @@
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="L6" t="s">
-        <v>156</v>
-      </c>
       <c r="M6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O6" t="s">
         <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q6" t="s">
         <v>53</v>
@@ -2584,13 +2492,13 @@
     </row>
     <row r="7" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -2608,19 +2516,16 @@
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K7" t="s">
         <v>53</v>
       </c>
-      <c r="L7" t="s">
-        <v>163</v>
-      </c>
       <c r="M7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O7" t="s">
         <v>83</v>
@@ -2632,10 +2537,10 @@
         <v>53</v>
       </c>
       <c r="W7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="X7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Z7" t="s">
         <v>88</v>
@@ -2650,13 +2555,13 @@
         <v>88</v>
       </c>
       <c r="AH7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AI7" t="s">
         <v>87</v>
       </c>
       <c r="AJ7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AU7" t="s">
         <v>88</v>
@@ -2701,7 +2606,7 @@
         <v>87</v>
       </c>
       <c r="BU7" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="BV7" s="3"/>
       <c r="BX7" t="s">
@@ -2719,13 +2624,13 @@
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
@@ -2743,19 +2648,16 @@
         <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K8" t="s">
         <v>53</v>
       </c>
-      <c r="L8" t="s">
-        <v>183</v>
-      </c>
       <c r="M8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="O8" t="s">
         <v>83</v>
@@ -2806,13 +2708,13 @@
         <v>88</v>
       </c>
       <c r="BL8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="BO8" t="s">
         <v>88</v>
       </c>
       <c r="BQ8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="BU8" t="s">
         <v>88</v>
@@ -2827,18 +2729,18 @@
         <v>88</v>
       </c>
       <c r="CE8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E9" t="s">
         <v>45</v>
@@ -2856,25 +2758,22 @@
         <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K9" t="s">
         <v>53</v>
       </c>
-      <c r="L9" t="s">
-        <v>192</v>
-      </c>
       <c r="M9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q9" t="s">
         <v>53</v>
@@ -2958,7 +2857,7 @@
         <v>87</v>
       </c>
       <c r="BK9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="BU9" s="3" t="s">
         <v>88</v>
@@ -2973,13 +2872,13 @@
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -2997,19 +2896,16 @@
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="K10" t="s">
         <v>53</v>
       </c>
-      <c r="L10" t="s">
-        <v>194</v>
-      </c>
       <c r="M10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="O10" t="s">
         <v>83</v>
@@ -3105,13 +3001,13 @@
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
@@ -3129,19 +3025,16 @@
         <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="K11" t="s">
         <v>53</v>
       </c>
-      <c r="L11" t="s">
-        <v>198</v>
-      </c>
       <c r="M11" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="N11" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="O11" t="s">
         <v>83</v>
@@ -3159,7 +3052,7 @@
         <v>87</v>
       </c>
       <c r="T11" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="W11" t="s">
         <v>88</v>
@@ -3237,13 +3130,13 @@
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E12" t="s">
         <v>45</v>
@@ -3261,19 +3154,16 @@
         <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="K12" t="s">
         <v>53</v>
       </c>
-      <c r="L12" t="s">
-        <v>212</v>
-      </c>
       <c r="M12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="O12" t="s">
         <v>83</v>
@@ -3362,13 +3252,13 @@
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" t="s">
         <v>206</v>
-      </c>
-      <c r="C13" t="s">
-        <v>216</v>
       </c>
       <c r="E13" t="s">
         <v>45</v>
@@ -3386,19 +3276,16 @@
         <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="K13" t="s">
         <v>53</v>
       </c>
-      <c r="L13" t="s">
-        <v>224</v>
-      </c>
       <c r="M13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N13" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="O13" t="s">
         <v>83</v>
@@ -3490,13 +3377,13 @@
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E14" t="s">
         <v>45</v>
@@ -3514,31 +3401,28 @@
         <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="K14" t="s">
         <v>53</v>
       </c>
-      <c r="L14" t="s">
-        <v>233</v>
-      </c>
       <c r="M14" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="N14" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="O14" t="s">
         <v>83</v>
       </c>
       <c r="P14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q14" t="s">
         <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="W14" t="s">
         <v>88</v>
@@ -3571,10 +3455,10 @@
         <v>88</v>
       </c>
       <c r="BQ14" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="BU14" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="BV14" s="3"/>
       <c r="BX14" t="s">
@@ -3589,13 +3473,13 @@
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
         <v>45</v>
@@ -3613,16 +3497,16 @@
         <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="K15" t="s">
         <v>53</v>
       </c>
       <c r="M15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N15" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="O15" t="s">
         <v>83</v>
@@ -3714,13 +3598,13 @@
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
@@ -3738,25 +3622,22 @@
         <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="K16" t="s">
         <v>53</v>
       </c>
-      <c r="L16" t="s">
-        <v>240</v>
-      </c>
       <c r="M16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N16" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="O16" t="s">
         <v>83</v>
       </c>
       <c r="P16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q16" t="s">
         <v>53</v>
@@ -3768,7 +3649,7 @@
         <v>88</v>
       </c>
       <c r="Z16" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="AD16" t="s">
         <v>88</v>
@@ -3785,13 +3666,13 @@
     </row>
     <row r="17" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B17" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C17" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E17" t="s">
         <v>45</v>
@@ -3809,19 +3690,16 @@
         <v>49</v>
       </c>
       <c r="J17" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="K17" t="s">
         <v>53</v>
       </c>
-      <c r="L17" t="s">
-        <v>245</v>
-      </c>
       <c r="M17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O17" t="s">
         <v>83</v>
@@ -3833,16 +3711,16 @@
         <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK17" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="AN17" t="s">
         <v>87</v>
@@ -3940,13 +3818,13 @@
     </row>
     <row r="18" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B18" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C18" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E18" t="s">
         <v>45</v>
@@ -3964,19 +3842,16 @@
         <v>49</v>
       </c>
       <c r="J18" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="K18" t="s">
         <v>53</v>
       </c>
-      <c r="L18" t="s">
-        <v>251</v>
-      </c>
       <c r="M18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N18" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="O18" t="s">
         <v>83</v>
@@ -4065,16 +3940,16 @@
     </row>
     <row r="19" spans="1:97" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B19" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C19" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D19" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E19" t="s">
         <v>45</v>
@@ -4092,19 +3967,17 @@
         <v>49</v>
       </c>
       <c r="J19" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="K19" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>276</v>
-      </c>
+      <c r="L19" s="4"/>
       <c r="M19" t="s">
         <v>53</v>
       </c>
       <c r="N19" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="O19" t="s">
         <v>83</v>
@@ -4214,13 +4087,13 @@
     </row>
     <row r="20" spans="1:97" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B20" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C20" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E20" t="s">
         <v>45</v>
@@ -4238,19 +4111,17 @@
         <v>49</v>
       </c>
       <c r="J20" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="K20" t="s">
         <v>53</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>278</v>
-      </c>
+      <c r="L20" s="4"/>
       <c r="M20" t="s">
         <v>53</v>
       </c>
       <c r="N20" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="O20" t="s">
         <v>83</v>
@@ -4360,13 +4231,13 @@
     </row>
     <row r="21" spans="1:97" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C21" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E21" t="s">
         <v>45</v>
@@ -4384,19 +4255,17 @@
         <v>49</v>
       </c>
       <c r="J21" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="K21" t="s">
         <v>53</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>280</v>
-      </c>
+      <c r="L21" s="4"/>
       <c r="M21" t="s">
         <v>53</v>
       </c>
       <c r="N21" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="O21" t="s">
         <v>83</v>
@@ -4506,13 +4375,13 @@
     </row>
     <row r="22" spans="1:97" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B22" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E22" t="s">
         <v>45</v>
@@ -4530,19 +4399,17 @@
         <v>49</v>
       </c>
       <c r="J22" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="K22" t="s">
         <v>53</v>
       </c>
-      <c r="L22" s="4" t="s">
-        <v>282</v>
-      </c>
+      <c r="L22" s="4"/>
       <c r="M22" t="s">
         <v>53</v>
       </c>
       <c r="N22" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="O22" t="s">
         <v>83</v>
@@ -4652,13 +4519,13 @@
     </row>
     <row r="23" spans="1:97" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C23" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E23" t="s">
         <v>45</v>
@@ -4676,25 +4543,23 @@
         <v>49</v>
       </c>
       <c r="J23" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="K23" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="4" t="s">
-        <v>284</v>
-      </c>
+      <c r="L23" s="4"/>
       <c r="M23" t="s">
         <v>53</v>
       </c>
       <c r="N23" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="O23" t="s">
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q23" t="s">
         <v>53</v>
@@ -4798,13 +4663,13 @@
     </row>
     <row r="24" spans="1:97" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C24" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E24" t="s">
         <v>45</v>
@@ -4822,19 +4687,17 @@
         <v>49</v>
       </c>
       <c r="J24" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="K24" t="s">
         <v>53</v>
       </c>
-      <c r="L24" s="4" t="s">
-        <v>286</v>
-      </c>
+      <c r="L24" s="4"/>
       <c r="M24" t="s">
         <v>53</v>
       </c>
       <c r="N24" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O24" t="s">
         <v>83</v>
@@ -4944,13 +4807,13 @@
     </row>
     <row r="25" spans="1:97" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C25" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E25" t="s">
         <v>45</v>
@@ -4968,25 +4831,23 @@
         <v>49</v>
       </c>
       <c r="J25" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="K25" t="s">
         <v>53</v>
       </c>
-      <c r="L25" s="4" t="s">
-        <v>288</v>
-      </c>
+      <c r="L25" s="4"/>
       <c r="M25" t="s">
         <v>53</v>
       </c>
       <c r="N25" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="O25" t="s">
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q25" t="s">
         <v>53</v>
@@ -5090,13 +4951,13 @@
     </row>
     <row r="26" spans="1:97" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C26" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E26" t="s">
         <v>45</v>
@@ -5114,25 +4975,23 @@
         <v>49</v>
       </c>
       <c r="J26" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="K26" t="s">
         <v>53</v>
       </c>
-      <c r="L26" s="4" t="s">
-        <v>290</v>
-      </c>
+      <c r="L26" s="4"/>
       <c r="M26" t="s">
         <v>53</v>
       </c>
       <c r="N26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O26" t="s">
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q26" t="s">
         <v>53</v>
@@ -5236,13 +5095,13 @@
     </row>
     <row r="27" spans="1:97" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C27" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="E27" t="s">
         <v>45</v>
@@ -5260,25 +5119,23 @@
         <v>49</v>
       </c>
       <c r="J27" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="K27" t="s">
         <v>53</v>
       </c>
-      <c r="L27" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="L27" s="4"/>
       <c r="M27" t="s">
         <v>53</v>
       </c>
       <c r="N27" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="O27" t="s">
         <v>83</v>
       </c>
       <c r="P27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q27" t="s">
         <v>53</v>
@@ -5382,13 +5239,13 @@
     </row>
     <row r="28" spans="1:97" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B28" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C28" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E28" t="s">
         <v>45</v>
@@ -5406,19 +5263,17 @@
         <v>49</v>
       </c>
       <c r="J28" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="K28" t="s">
         <v>53</v>
       </c>
-      <c r="L28" s="4" t="s">
-        <v>294</v>
-      </c>
+      <c r="L28" s="4"/>
       <c r="M28" t="s">
         <v>53</v>
       </c>
       <c r="N28" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="O28" t="s">
         <v>83</v>
@@ -5528,13 +5383,13 @@
     </row>
     <row r="29" spans="1:97" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C29" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="E29" t="s">
         <v>45</v>
@@ -5552,19 +5407,17 @@
         <v>49</v>
       </c>
       <c r="J29" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s">
         <v>53</v>
       </c>
-      <c r="L29" s="4" t="s">
-        <v>296</v>
-      </c>
+      <c r="L29" s="4"/>
       <c r="M29" t="s">
         <v>53</v>
       </c>
       <c r="N29" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="O29" t="s">
         <v>83</v>
@@ -5672,149 +5525,147 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:97" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B30" s="5" t="s">
+    <row r="30" spans="1:97" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" t="s">
+        <v>254</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" t="s">
+        <v>271</v>
+      </c>
+      <c r="K30" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N30" t="s">
         <v>257</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="O30" s="5" t="s">
+      <c r="O30" t="s">
         <v>83</v>
       </c>
-      <c r="P30" s="5" t="s">
+      <c r="P30" t="s">
         <v>84</v>
       </c>
-      <c r="Q30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="T30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="W30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="X30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ30" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AV30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BK30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BQ30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BU30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BV30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="CJ30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="CM30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="CN30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="CO30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="CP30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="CQ30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="CR30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="CS30" s="6" t="s">
+      <c r="Q30" t="s">
+        <v>53</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T30" t="s">
+        <v>87</v>
+      </c>
+      <c r="W30" t="s">
+        <v>87</v>
+      </c>
+      <c r="X30" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>87</v>
+      </c>
+      <c r="BV30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ30" t="s">
+        <v>88</v>
+      </c>
+      <c r="CK30" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="CO30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="CP30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="CQ30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="CR30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="CS30" s="4" t="s">
         <v>87</v>
       </c>
     </row>
